--- a/excels/Cambridge.xlsx
+++ b/excels/Cambridge.xlsx
@@ -1699,7 +1699,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>3546.443306471257</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2340.38030042482</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2188.361513319556</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3730.078221528331</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>3730.078221528331</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3730.078221528331</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1801.013391658397</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1801.013391658397</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1801.013391658397</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1801.013391658397</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1801.013391658397</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1801.013391658397</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1801.013391658397</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1801.013391658397</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1801.013391658397</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>3283.935627627456</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2928.704648475533</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3529.737939249553</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>3032.297796307326</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>3765.461259407657</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>3765.461259407657</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>2887.337701012508</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>3765.461259407657</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>3674.571190732439</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>3674.571190732439</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>3765.461259407657</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>3674.571190732439</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>3765.461259407657</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>3765.461259407657</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>3674.571190732439</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>3674.571190732439</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2887.337701012508</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>3328.527803346148</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>5439.237641453246</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>5439.237641453246</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>5582.537224538417</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>5582.537224538417</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>5582.537224538417</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>5439.237641453246</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2490.756402620608</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>5582.537224538417</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>5439.237641453246</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>5439.237641453246</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>3025.105853051059</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>3366.003573555688</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>3366.003573555688</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>3366.003573555688</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>3366.003573555688</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>3777.237851662404</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>3366.003573555688</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>3828.571939359268</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>3926.05122096486</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>4667.849910661108</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>4219.926146515784</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>3926.05122096486</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>3934.985110184635</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>3366.003573555688</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>4144.388573399686</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>4108.42328844473</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>5075.627207280199</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>4733.084860028228</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>4083.532442816038</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>3025.105853051059</v>
